--- a/rise-2016-database-for-download.xlsx
+++ b/rise-2016-database-for-download.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb500879\Box Sync\RISE 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\Parcial_ICDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A0439-669E-440D-8162-7B9122A78661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,21 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -179,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +322,7 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -329,7 +341,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -414,55 +426,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -477,7 +440,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions"/>
@@ -2911,14 +2874,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -15526,80 +15489,51 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="S1:AD1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="lessThan">
+  <conditionalFormatting sqref="E3:H113">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+      <formula>66.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="between">
+      <formula>33.5</formula>
+      <formula>66.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>33.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E113 Q66">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">
+  <conditionalFormatting sqref="J3:Q113">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>66.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
       <formula>33.5</formula>
       <formula>66.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>33.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:Q3 J5:Q65 J67:Q113 AF3:AL113 S3:AC113">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
+  <conditionalFormatting sqref="S3:AD113">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>66.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
       <formula>33.5</formula>
       <formula>66.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>33.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:Q4">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="AF3:AL113">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="greaterThan">
       <formula>66.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="between">
       <formula>33.5</formula>
       <formula>66.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="lessThan">
-      <formula>33.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:H113">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
-      <formula>66.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
-      <formula>33.5</formula>
-      <formula>66.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
-      <formula>33.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66:P66">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
-      <formula>66.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
-      <formula>33.5</formula>
-      <formula>66.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
-      <formula>33.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD113">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>66.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>33.5</formula>
-      <formula>66.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThan">
       <formula>33.5</formula>
     </cfRule>
   </conditionalFormatting>
